--- a/AAA - Revision Asignacion de Salida (version Agosto-Diciembre 2024).xlsx
+++ b/AAA - Revision Asignacion de Salida (version Agosto-Diciembre 2024).xlsx
@@ -544,7 +544,7 @@
         <v>41456</v>
       </c>
       <c r="C2" t="n">
-        <v>11.31506849315068</v>
+        <v>11.3013698630137</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -555,13 +555,13 @@
         <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>6.221475339081885</v>
+        <v>6.221577520305049</v>
       </c>
       <c r="G2" t="n">
-        <v>4.173312068048897</v>
+        <v>4.321250888415055</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -576,13 +576,13 @@
         <v>1.333333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>5.337404580152672</v>
+        <v>5.527272727272726</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3094147582697201</v>
+        <v>0.3349862258953167</v>
       </c>
     </row>
     <row r="3">
@@ -607,7 +607,7 @@
         <v>41456</v>
       </c>
       <c r="C3" t="n">
-        <v>11.31506849315068</v>
+        <v>11.3013698630137</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -618,13 +618,13 @@
         <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>6.221475339081885</v>
+        <v>6.221577520305049</v>
       </c>
       <c r="G3" t="n">
-        <v>3.907496012759158</v>
+        <v>3.894811656005675</v>
       </c>
       <c r="H3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>1.333333333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>4.836363636363636</v>
+        <v>4.734426229508196</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.307070707070707</v>
+        <v>0.3322404371584699</v>
       </c>
     </row>
     <row r="4">
@@ -670,7 +670,7 @@
         <v>41640</v>
       </c>
       <c r="C4" t="n">
-        <v>10.81095890410959</v>
+        <v>10.7972602739726</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>6.277797674254877</v>
+        <v>6.277886928260588</v>
       </c>
       <c r="G4" t="n">
-        <v>4.173312068048897</v>
+        <v>4.321250888415055</v>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>1.333333333333333</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>5.103649635036496</v>
+        <v>5.266141732283463</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2958637469586374</v>
+        <v>0.3191601049868766</v>
       </c>
     </row>
     <row r="5">
@@ -733,7 +733,7 @@
         <v>41640</v>
       </c>
       <c r="C5" t="n">
-        <v>10.81095890410959</v>
+        <v>10.7972602739726</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -744,13 +744,13 @@
         <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>6.277797674254877</v>
+        <v>6.277886928260588</v>
       </c>
       <c r="G5" t="n">
-        <v>4.173312068048897</v>
+        <v>4.179104477611928</v>
       </c>
       <c r="H5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -765,13 +765,13 @@
         <v>1.333333333333333</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>5.179259259259259</v>
+        <v>5.1072</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3002469135802469</v>
+        <v>0.3242666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -796,7 +796,7 @@
         <v>41852</v>
       </c>
       <c r="C6" t="n">
-        <v>10.23013698630137</v>
+        <v>10.21643835616438</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -807,13 +807,13 @@
         <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>6.342690799562891</v>
+        <v>6.342765159165885</v>
       </c>
       <c r="G6" t="n">
-        <v>3.774587985114289</v>
+        <v>3.894811656005675</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>1.333333333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>4.537313432835821</v>
+        <v>4.658064516129031</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3024875621890547</v>
+        <v>0.3268817204301075</v>
       </c>
     </row>
     <row r="7">
@@ -859,7 +859,7 @@
         <v>41852</v>
       </c>
       <c r="C7" t="n">
-        <v>10.23013698630137</v>
+        <v>10.21643835616438</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -870,16 +870,16 @@
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>6.342690799562891</v>
+        <v>6.342765159165885</v>
       </c>
       <c r="G7" t="n">
-        <v>4.306220095693765</v>
+        <v>4.434968017057556</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -891,16 +891,16 @@
         <v>1.333333333333333</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>4.437956204379562</v>
+        <v>4.548031496062992</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2958637469586374</v>
+        <v>0.3191601049868766</v>
       </c>
     </row>
     <row r="8">
@@ -922,7 +922,7 @@
         <v>41852</v>
       </c>
       <c r="C8" t="n">
-        <v>10.23013698630137</v>
+        <v>10.21643835616438</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -933,16 +933,16 @@
         <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>6.342690799562891</v>
+        <v>6.342765159165885</v>
       </c>
       <c r="G8" t="n">
-        <v>4.465709728867609</v>
+        <v>4.434968017057556</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -954,16 +954,16 @@
         <v>1.333333333333333</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.764179104477612</v>
+        <v>4.658064516129031</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3024875621890547</v>
+        <v>0.3268817204301075</v>
       </c>
     </row>
     <row r="9">
@@ -985,7 +985,7 @@
         <v>42736</v>
       </c>
       <c r="C9" t="n">
-        <v>7.808219178082192</v>
+        <v>7.794520547945205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -996,46 +996,46 @@
         <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>6.613282888111395</v>
+        <v>6.613295140865327</v>
       </c>
       <c r="G9" t="n">
-        <v>8.798511430090352</v>
+        <v>8.955223880596993</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5.217910447761194</v>
+        <v>5.393548387096773</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2.949253731343283</v>
+        <v>2.941935483870967</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4537313432835821</v>
+        <v>0.4903225806451612</v>
       </c>
     </row>
     <row r="10">
@@ -1048,7 +1048,7 @@
         <v>43040</v>
       </c>
       <c r="C10" t="n">
-        <v>6.975342465753425</v>
+        <v>6.961643835616439</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1059,46 +1059,46 @@
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>6.706337181005904</v>
+        <v>6.706328075748393</v>
       </c>
       <c r="G10" t="n">
-        <v>8.798511430090352</v>
+        <v>8.955223880596993</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4.69261744966443</v>
+        <v>4.811510791366906</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.652348993288591</v>
+        <v>2.624460431654676</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4080536912751678</v>
+        <v>0.437410071942446</v>
       </c>
     </row>
     <row r="11">
@@ -1111,7 +1111,7 @@
         <v>43113</v>
       </c>
       <c r="C11" t="n">
-        <v>6.775342465753424</v>
+        <v>6.761643835616439</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1122,10 +1122,10 @@
         <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>6.728682455286493</v>
+        <v>6.728668221295972</v>
       </c>
       <c r="G11" t="n">
-        <v>8.160552897394977</v>
+        <v>8.514570007107297</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>13</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9212121212121213</v>
+        <v>0.7475409836065573</v>
       </c>
       <c r="R11" t="n">
-        <v>2.993939393939394</v>
+        <v>3.239344262295082</v>
       </c>
       <c r="S11" t="n">
-        <v>1.074747474747475</v>
+        <v>1.162841530054645</v>
       </c>
     </row>
     <row r="12">
@@ -1174,7 +1174,7 @@
         <v>43770</v>
       </c>
       <c r="C12" t="n">
-        <v>4.975342465753425</v>
+        <v>4.961643835616439</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1185,10 +1185,10 @@
         <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>6.929789923811796</v>
+        <v>6.929729531224177</v>
       </c>
       <c r="G12" t="n">
-        <v>8.426368952684717</v>
+        <v>8.514570007107297</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" t="n">
         <v>4.666666666666666</v>
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9007407407407407</v>
+        <v>0.7295999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>3.152592592592593</v>
+        <v>3.1616</v>
       </c>
       <c r="S12" t="n">
-        <v>1.050864197530864</v>
+        <v>1.134933333333333</v>
       </c>
     </row>
     <row r="13">
@@ -1237,7 +1237,7 @@
         <v>44440</v>
       </c>
       <c r="C13" t="n">
-        <v>3.13972602739726</v>
+        <v>3.126027397260274</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1248,10 +1248,10 @@
         <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>7.134876687756932</v>
+        <v>7.134769223236198</v>
       </c>
       <c r="G13" t="n">
-        <v>8.426368952684717</v>
+        <v>8.727789623311988</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
         <v>4.666666666666666</v>
@@ -1281,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9074626865671642</v>
+        <v>0.9806451612903224</v>
       </c>
       <c r="R13" t="n">
-        <v>3.176119402985075</v>
+        <v>3.187096774193548</v>
       </c>
       <c r="S13" t="n">
-        <v>1.058706467661691</v>
+        <v>1.144086021505376</v>
       </c>
     </row>
     <row r="14">
@@ -1300,7 +1300,7 @@
         <v>44713</v>
       </c>
       <c r="C14" t="n">
-        <v>2.391780821917808</v>
+        <v>2.378082191780822</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1311,10 +1311,10 @@
         <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>7.218441891573383</v>
+        <v>7.218315246996319</v>
       </c>
       <c r="G14" t="n">
-        <v>9.263689526847392</v>
+        <v>8.727789623311988</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>5.666666666666665</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9007407407407407</v>
+        <v>0.9727999999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>3.152592592592593</v>
+        <v>3.1616</v>
       </c>
       <c r="S14" t="n">
-        <v>1.276049382716049</v>
+        <v>1.134933333333333</v>
       </c>
     </row>
     <row r="15">
@@ -1363,7 +1363,7 @@
         <v>44713</v>
       </c>
       <c r="C15" t="n">
-        <v>2.391780821917808</v>
+        <v>2.378082191780822</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1374,10 +1374,10 @@
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>7.218441891573383</v>
+        <v>7.218315246996319</v>
       </c>
       <c r="G15" t="n">
-        <v>9.542796384901617</v>
+        <v>9.026297085998554</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1389,13 +1389,13 @@
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>5.999999999999998</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>2</v>
@@ -1407,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8161073825503355</v>
+        <v>0.874820143884892</v>
       </c>
       <c r="R15" t="n">
-        <v>2.856375838926175</v>
+        <v>2.843165467625899</v>
       </c>
       <c r="S15" t="n">
-        <v>1.224161073825503</v>
+        <v>1.093525179856115</v>
       </c>
     </row>
     <row r="16">
@@ -1426,7 +1426,7 @@
         <v>45383</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5561643835616439</v>
+        <v>0.5424657534246575</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1437,10 +1437,10 @@
         <v>15</v>
       </c>
       <c r="F16" t="n">
-        <v>7.423528655518516</v>
+        <v>7.42335493900834</v>
       </c>
       <c r="G16" t="n">
-        <v>9.609250398724051</v>
+        <v>9.097370291400118</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1452,16 +1452,16 @@
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" t="n">
-        <v>5.999999999999998</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1470,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6162162162162163</v>
+        <v>0.6608695652173913</v>
       </c>
       <c r="R16" t="n">
-        <v>3.081081081081081</v>
+        <v>3.084057971014492</v>
       </c>
       <c r="S16" t="n">
-        <v>1.232432432432432</v>
+        <v>1.101449275362319</v>
       </c>
     </row>
   </sheetData>
